--- a/forms/Form-2FC_interim.xlsx
+++ b/forms/Form-2FC_interim.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F904DB-B6F6-455F-BEBA-9E4BB0044F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1356DD31-C676-4700-91A5-53DA4C93FC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wX8sA2MiVV4hem5/4RTiTmcDJYFB86HqbOVJt9hNWIZw6gEt8u041CW+Lo33VdE+XPx62lk39pDAbSFn1bENfA==" workbookSaltValue="4+KZsXogYyQ9Ht7v5WkMIg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -48,12 +48,6 @@
     <t>Full name</t>
   </si>
   <si>
-    <t>e-mail</t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
     <t>General information</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>Submission information</t>
   </si>
   <si>
-    <t>Finalization date</t>
-  </si>
-  <si>
     <t>Submission date</t>
   </si>
   <si>
@@ -148,6 +139,15 @@
   </si>
   <si>
     <t>1.0.0-interim</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Finalisation date</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1202,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="66" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -1223,17 +1223,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H4" s="18"/>
     </row>
@@ -1249,7 +1249,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="19"/>
       <c r="C6" s="22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -1274,7 +1274,7 @@
       <c r="D8" s="65"/>
       <c r="E8" s="20"/>
       <c r="F8" s="65" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G8" s="65"/>
       <c r="H8" s="21"/>
@@ -1295,12 +1295,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
       <c r="C10" s="24" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="20" t="s">
-        <v>3</v>
+      <c r="F10" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="21"/>
@@ -1317,7 +1317,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="24" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="20"/>
@@ -1328,7 +1328,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
       <c r="C13" s="24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="20"/>
@@ -1357,7 +1357,7 @@
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="19"/>
       <c r="C16" s="22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1377,7 +1377,7 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
       <c r="C18" s="24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="20"/>
@@ -1388,7 +1388,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="20"/>
@@ -1399,7 +1399,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
       <c r="C20" s="42" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="20"/>
@@ -1428,7 +1428,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="19"/>
       <c r="C23" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="20"/>
@@ -1468,7 +1468,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ie/Shns3YYE4QlFmEKQeayvN21QT4ur/juQHLMwDya615IdkJ2LOIAAZtCO46V68W1u55uBK0jp3aChaSwTwmQ==" saltValue="EqKMsiosd6+tSvtHTOEFKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oLwSKSSKKtbcKRT6M9Nd1RLL2Hw6ptwpdMUifl96zz+HJWkYyZHSfdoY+1Gza1yoBJb/VBhjFaNH9IV5SIgSHg==" saltValue="Jq4rdXtaY7MtTE4mvCkBqg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="66" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -1577,80 +1577,80 @@
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="72" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" s="74"/>
       <c r="D4" s="72" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" s="73"/>
       <c r="F4" s="74"/>
       <c r="G4" s="72" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H4" s="74"/>
       <c r="I4" s="72" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J4" s="74"/>
       <c r="K4" s="72" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L4" s="74"/>
       <c r="M4" s="72" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N4" s="73"/>
       <c r="O4" s="74"/>
       <c r="P4" s="33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>16</v>
-      </c>
       <c r="G5" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="56" t="s">
+      <c r="M5" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="60" t="s">
-        <v>27</v>
-      </c>
       <c r="O5" s="61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P5" s="55" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">

--- a/forms/Form-2FC_interim.xlsx
+++ b/forms/Form-2FC_interim.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1356DD31-C676-4700-91A5-53DA4C93FC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611D8B22-C502-44BC-BFFB-D15E0B6257AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wX8sA2MiVV4hem5/4RTiTmcDJYFB86HqbOVJt9hNWIZw6gEt8u041CW+Lo33VdE+XPx62lk39pDAbSFn1bENfA==" workbookSaltValue="4+KZsXogYyQ9Ht7v5WkMIg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -623,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -846,6 +846,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1186,7 +1187,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1300,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="75" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="3"/>
@@ -1468,7 +1469,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oLwSKSSKKtbcKRT6M9Nd1RLL2Hw6ptwpdMUifl96zz+HJWkYyZHSfdoY+1Gza1yoBJb/VBhjFaNH9IV5SIgSHg==" saltValue="Jq4rdXtaY7MtTE4mvCkBqg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nuUz9YrvmkEBa4kqGIDEXPsAtxPBZzyiuP7SSC2rRiulLeHKckpabcjRG7ovG0+4WbPpE5UGPBfzoCXiisbcjg==" saltValue="PSiupMLO2lmOmUE6iaMFEg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>

--- a/forms/Form-2FC_interim.xlsx
+++ b/forms/Form-2FC_interim.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611D8B22-C502-44BC-BFFB-D15E0B6257AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB82606-967B-4731-8B4E-B1258FE8E3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wX8sA2MiVV4hem5/4RTiTmcDJYFB86HqbOVJt9hNWIZw6gEt8u041CW+Lo33VdE+XPx62lk39pDAbSFn1bENfA==" workbookSaltValue="4+KZsXogYyQ9Ht7v5WkMIg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -623,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -846,7 +846,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1187,7 +1186,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,7 +1299,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="75" t="s">
+      <c r="F10" s="20" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="3"/>
